--- a/dadosExcel/teste.xlsx
+++ b/dadosExcel/teste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetosDicoC\bancoDados\Visual_Studio_ProjetoSeries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetosDicoC\inserirDadosNetflix\dadosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B7FA162-B04D-4C4E-8337-2989A70AFF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B07D32-384D-4948-9879-6EE5DED77433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21930" yWindow="795" windowWidth="11520" windowHeight="7875" xr2:uid="{5D54907B-D986-4BDB-B3AF-3CAA3C9B35B4}"/>
+    <workbookView xWindow="22365" yWindow="3390" windowWidth="11520" windowHeight="7875" xr2:uid="{5D54907B-D986-4BDB-B3AF-3CAA3C9B35B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>IdClassificacaoEtaria</t>
   </si>
@@ -83,6 +83,27 @@
   </si>
   <si>
     <t>Violência: Apologia à violência; Crueldade.</t>
+  </si>
+  <si>
+    <t>CodExterno</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>"10"</t>
+  </si>
+  <si>
+    <t>"12"</t>
+  </si>
+  <si>
+    <t>"14"</t>
+  </si>
+  <si>
+    <t>"16"</t>
+  </si>
+  <si>
+    <t>"18"</t>
   </si>
 </sst>
 </file>
@@ -434,15 +455,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1235286-02DE-430C-8149-1DDB8614A336}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +482,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -469,8 +499,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -483,8 +516,11 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -497,8 +533,11 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -511,8 +550,11 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -525,8 +567,11 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -538,6 +583,9 @@
       </c>
       <c r="D7" t="b">
         <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
